--- a/workingDirectory/liste.xlsx
+++ b/workingDirectory/liste.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FATURA TARİHİ</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>SİPARİŞ NO</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -185,6 +182,22 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -491,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,35 +557,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8"/>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>121121</v>
+      </c>
+      <c r="B2" s="15">
+        <v>12122</v>
+      </c>
+      <c r="C2" s="15">
+        <v>12</v>
+      </c>
+      <c r="D2" s="16">
+        <v>21</v>
+      </c>
+      <c r="E2" s="15">
+        <v>21</v>
+      </c>
+      <c r="F2" s="17">
+        <v>21</v>
+      </c>
+      <c r="G2" s="15">
+        <v>21</v>
+      </c>
+      <c r="H2" s="15">
+        <v>21</v>
+      </c>
+      <c r="I2" s="18">
+        <v>7</v>
+      </c>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -593,31 +606,31 @@
       <c r="D4" s="6"/>
       <c r="E4" s="5"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="5"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="5"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
@@ -634,6 +647,30 @@
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
     </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
